--- a/S19/_members (2026).xlsx
+++ b/S19/_members (2026).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="372">
   <si>
     <t xml:space="preserve">Role</t>
   </si>
@@ -1054,30 +1054,33 @@
     <t xml:space="preserve">admin2</t>
   </si>
   <si>
+    <t xml:space="preserve">Kokwei Fong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">391694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kokwei.fong@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;- formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">935567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kw1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140998</t>
+  </si>
+  <si>
     <t xml:space="preserve">kw2</t>
   </si>
   <si>
-    <t xml:space="preserve">391694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kokwei.fong@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;- formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kw1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">935567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140998</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pierre Fallot</t>
   </si>
   <si>
@@ -1085,6 +1088,9 @@
   </si>
   <si>
     <t xml:space="preserve">pfallot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">665736</t>
   </si>
   <si>
     <t xml:space="preserve">Anne-Chantal Drain</t>
@@ -1231,7 +1237,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1261,6 +1267,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1451,14 +1465,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V93"/>
+  <dimension ref="A1:V94"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D74" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A83" activeCellId="0" sqref="A83"/>
-      <selection pane="bottomRight" activeCell="C93" activeCellId="0" sqref="C93"/>
+      <selection pane="bottomLeft" activeCell="A74" activeCellId="0" sqref="A74"/>
+      <selection pane="bottomRight" activeCell="C85" activeCellId="0" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3655,24 +3669,21 @@
       <c r="A85" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B85" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="3" t="s">
         <v>344</v>
       </c>
       <c r="D85" s="1"/>
-      <c r="E85" s="5" t="s">
+      <c r="E85" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="F85" s="6" t="s">
+      <c r="F85" s="9" t="s">
         <v>346</v>
       </c>
       <c r="G85" s="5" t="str">
         <f aca="true">TEXT(TRUNC(1000000*RAND()),"000000")</f>
-        <v>284901</v>
-      </c>
-      <c r="H85" s="8" t="s">
+        <v>035672</v>
+      </c>
+      <c r="H85" s="10" t="s">
         <v>347</v>
       </c>
     </row>
@@ -3680,34 +3691,28 @@
       <c r="A86" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B86" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E86" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="E86" s="5" t="s">
+      <c r="F86" s="9" t="s">
         <v>350</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B87" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="E87" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>344</v>
+      <c r="F87" s="3" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3715,41 +3720,42 @@
         <v>348</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>356</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>357</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="G89" s="5"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>348</v>
       </c>
       <c r="C90" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E90" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="E90" s="5" t="s">
+      <c r="F90" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3757,13 +3763,13 @@
         <v>348</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E91" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="E91" s="5" t="s">
+      <c r="F91" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3771,13 +3777,13 @@
         <v>348</v>
       </c>
       <c r="C92" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E92" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="E92" s="5" t="s">
+      <c r="F92" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3785,13 +3791,27 @@
         <v>348</v>
       </c>
       <c r="C93" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E93" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="E93" s="5" t="s">
+      <c r="F93" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="F93" s="1" t="s">
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>369</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>371</v>
       </c>
     </row>
   </sheetData>
